--- a/medicine/Mort/Cimetière_militaire_franco-allemand_de_Bertrimoutier/Cimetière_militaire_franco-allemand_de_Bertrimoutier.xlsx
+++ b/medicine/Mort/Cimetière_militaire_franco-allemand_de_Bertrimoutier/Cimetière_militaire_franco-allemand_de_Bertrimoutier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_franco-allemand_de_Bertrimoutier</t>
+          <t>Cimetière_militaire_franco-allemand_de_Bertrimoutier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire franco-allemand de Bertrimoutier est un cimetière militaire de la Première Guerre mondiale, situé à Bertrimoutier dans le département des Vosges, en Lorraine.
 Il s'agit en fait de deux cimetières mitoyens : la nécropole nationale de Bertrimoutier, qui est un cimetière militaire français, et le cimetière militaire allemand.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_franco-allemand_de_Bertrimoutier</t>
+          <t>Cimetière_militaire_franco-allemand_de_Bertrimoutier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès 1920, une nécropole nationale est envisagée par l'État, au lieu-dit Aux Zières de la Vigne.
 Le 26 décembre 1920, le conseil municipal considère cet emplacement comme « particulièrement bien choisi » et donne un avis favorable à ce projet. Dès lors, en 1921, l'État achète les terrains aux propriétaires privés et les travaux commencent cette même année pour être terminés en 1924.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_franco-allemand_de_Bertrimoutier</t>
+          <t>Cimetière_militaire_franco-allemand_de_Bertrimoutier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La nécropole nationale de Bertrimoutier
-Elle rassemble, sur une superficie de 4 367 m2, 966 tombes individuelles de soldats français[1] ainsi que 12 tombes de soldats russes et celle d'un soldat roumain inconnu[2].
-Le cimetière militaire allemand
-Ce cimetière rassemble, sur une superficie de 5 701 m2 les corps de 6 749 soldats allemands dont 4 163 sont inconnus inhumés dans des ossuaires. Les tombes individuelles sont matérialisées par des croix en métal[3].
+          <t>La nécropole nationale de Bertrimoutier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle rassemble, sur une superficie de 4 367 m2, 966 tombes individuelles de soldats français ainsi que 12 tombes de soldats russes et celle d'un soldat roumain inconnu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_franco-allemand_de_Bertrimoutier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_franco-allemand_de_Bertrimoutier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le cimetière militaire allemand</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière rassemble, sur une superficie de 5 701 m2 les corps de 6 749 soldats allemands dont 4 163 sont inconnus inhumés dans des ossuaires. Les tombes individuelles sont matérialisées par des croix en métal.
 </t>
         </is>
       </c>
